--- a/rawdata/aux_data/TableHawaii_p134.xlsx
+++ b/rawdata/aux_data/TableHawaii_p134.xlsx
@@ -501,11 +501,11 @@
       <c r="H5" s="10">
         <v>102.0</v>
       </c>
-      <c r="I5" s="6">
-        <v>112.0</v>
+      <c r="I5" s="10">
+        <v>113.0</v>
       </c>
       <c r="J5" s="7">
-        <v>35459.0</v>
+        <v>34020.0</v>
       </c>
       <c r="K5" s="7">
         <v>44905.0</v>
@@ -1996,13 +1996,13 @@
         <v>102.0</v>
       </c>
       <c r="B104" s="7">
-        <v>35459.0</v>
+        <v>34020.0</v>
       </c>
       <c r="D104" s="6">
-        <v>7.642857142857144E8</v>
+        <v>1.1142857142857143E8</v>
       </c>
       <c r="E104" s="6">
-        <v>4.59097986014286E9</v>
+        <v>3.82669414585714E9</v>
       </c>
       <c r="M104" s="5"/>
     </row>
@@ -2011,13 +2011,13 @@
         <v>103.0</v>
       </c>
       <c r="B105" s="7">
-        <v>35461.0</v>
+        <v>35459.0</v>
       </c>
       <c r="D105" s="6">
-        <v>428571.4285714286</v>
+        <v>7.642857142857144E8</v>
       </c>
       <c r="E105" s="6">
-        <v>4.59140843157143E9</v>
+        <v>4.59097986014286E9</v>
       </c>
       <c r="M105" s="5"/>
     </row>
@@ -2026,13 +2026,13 @@
         <v>104.0</v>
       </c>
       <c r="B106" s="7">
-        <v>39254.0</v>
+        <v>35461.0</v>
       </c>
       <c r="D106" s="6">
-        <v>2.213334666666667E9</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="E106" s="6">
-        <v>6.8047430982381E9</v>
+        <v>4.59140843157143E9</v>
       </c>
       <c r="M106" s="5"/>
     </row>
@@ -2041,13 +2041,13 @@
         <v>105.0</v>
       </c>
       <c r="B107" s="7">
-        <v>40609.0</v>
+        <v>39254.0</v>
       </c>
       <c r="D107" s="6">
-        <v>8.4E8</v>
+        <v>2.213334666666667E9</v>
       </c>
       <c r="E107" s="6">
-        <v>7.6447430982381E9</v>
+        <v>6.8047430982381E9</v>
       </c>
       <c r="M107" s="5"/>
     </row>
@@ -2056,13 +2056,13 @@
         <v>106.0</v>
       </c>
       <c r="B108" s="7">
-        <v>40611.0</v>
+        <v>40609.0</v>
       </c>
       <c r="D108" s="6">
-        <v>3600000.0</v>
+        <v>8.4E8</v>
       </c>
       <c r="E108" s="6">
-        <v>7.6483430982381E9</v>
+        <v>7.6447430982381E9</v>
       </c>
       <c r="M108" s="5"/>
     </row>
@@ -2071,13 +2071,13 @@
         <v>107.0</v>
       </c>
       <c r="B109" s="7">
-        <v>40770.0</v>
+        <v>40611.0</v>
       </c>
       <c r="D109" s="6">
-        <v>5.3333333333333336E7</v>
+        <v>3600000.0</v>
       </c>
       <c r="E109" s="6">
-        <v>7.70167643157143E9</v>
+        <v>7.6483430982381E9</v>
       </c>
       <c r="M109" s="5"/>
     </row>
@@ -2086,13 +2086,13 @@
         <v>108.0</v>
       </c>
       <c r="B110" s="7">
-        <v>43219.0</v>
+        <v>40770.0</v>
       </c>
       <c r="D110" s="6">
-        <v>7.291986666666666E8</v>
+        <v>5.3333333333333336E7</v>
       </c>
       <c r="E110" s="6">
-        <v>8.4308750982381E9</v>
+        <v>7.70167643157143E9</v>
       </c>
       <c r="M110" s="5"/>
     </row>
@@ -2101,13 +2101,13 @@
         <v>109.0</v>
       </c>
       <c r="B111" s="7">
-        <v>43317.0</v>
+        <v>43219.0</v>
       </c>
       <c r="D111" s="6">
-        <v>1.18E9</v>
+        <v>7.291986666666666E8</v>
       </c>
       <c r="E111" s="6">
-        <v>9.61087509823809E9</v>
+        <v>8.4308750982381E9</v>
       </c>
       <c r="M111" s="5"/>
     </row>
@@ -2116,13 +2116,13 @@
         <v>110.0</v>
       </c>
       <c r="B112" s="7">
-        <v>44339.0</v>
+        <v>43317.0</v>
       </c>
       <c r="D112" s="6">
-        <v>4.1E7</v>
+        <v>1.18E9</v>
       </c>
       <c r="E112" s="6">
-        <v>9.65187509823809E9</v>
+        <v>9.61087509823809E9</v>
       </c>
       <c r="M112" s="5"/>
     </row>
@@ -2131,13 +2131,13 @@
         <v>111.0</v>
       </c>
       <c r="B113" s="7">
-        <v>44904.0</v>
+        <v>44339.0</v>
       </c>
       <c r="D113" s="6">
-        <v>1.11E8</v>
+        <v>4.1E7</v>
       </c>
       <c r="E113" s="6">
-        <v>9.76287509823809E9</v>
+        <v>9.65187509823809E9</v>
       </c>
       <c r="M113" s="5"/>
     </row>
@@ -2146,18 +2146,29 @@
         <v>112.0</v>
       </c>
       <c r="B114" s="7">
+        <v>44904.0</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1.11E8</v>
+      </c>
+      <c r="E114" s="6">
+        <v>9.76287509823809E9</v>
+      </c>
+      <c r="M114" s="5"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>113.0</v>
+      </c>
+      <c r="B115" s="7">
         <v>44905.0</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D115" s="6">
         <v>1.51E8</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E115" s="6">
         <v>9.91387509823809E9</v>
       </c>
-      <c r="M114" s="5"/>
-    </row>
-    <row r="115" ht="13.5" customHeight="1">
-      <c r="B115" s="7"/>
       <c r="M115" s="5"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
